--- a/results/yq_test/DJ_cz/Rb2Re4/total_DJ.xlsx
+++ b/results/yq_test/DJ_cz/Rb2Re4/total_DJ.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/yunqi_huang_student_uts_edu_au/Documents/Untitled Folder/NAQCT/results/yq_test/DJ_cz/Rb2Re4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="11_0EFD84A7DD3AD1015962DCF0505ED87656CD4BFF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9890546-1F5A-2C4B-9110-AEA3C155FEE3}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="11_0EFD84A7DD3AD1015962DCF0505ED87656CD4BFF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC857177-AA29-114E-92E0-936B68A31D51}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -3488,6 +3488,13 @@
       <c r="F37">
         <v>4</v>
       </c>
+      <c r="H37">
+        <v>0.478487201805391</v>
+      </c>
+      <c r="I37">
+        <f>C37/H37</f>
+        <v>1.5816233394184018</v>
+      </c>
       <c r="J37">
         <v>0.49303541896070091</v>
       </c>
@@ -3560,6 +3567,13 @@
       <c r="F38">
         <v>4</v>
       </c>
+      <c r="H38">
+        <v>0.46075561903475698</v>
+      </c>
+      <c r="I38">
+        <f>C38/H38</f>
+        <v>1.6348576591232611</v>
+      </c>
       <c r="J38">
         <v>0.49060235891568488</v>
       </c>
@@ -3632,6 +3646,13 @@
       <c r="F39">
         <v>4</v>
       </c>
+      <c r="H39">
+        <v>0.446576663563514</v>
+      </c>
+      <c r="I39">
+        <f>C39/H39</f>
+        <v>1.6649335020268501</v>
+      </c>
       <c r="J39">
         <v>0.48082307391663093</v>
       </c>
@@ -3704,6 +3725,13 @@
       <c r="F40">
         <v>4</v>
       </c>
+      <c r="H40">
+        <v>0.42933303681293</v>
+      </c>
+      <c r="I40">
+        <f>C40/H40</f>
+        <v>1.7139317088015451</v>
+      </c>
       <c r="J40">
         <v>0.44375882898738472</v>
       </c>
@@ -3776,6 +3804,13 @@
       <c r="F41">
         <v>4</v>
       </c>
+      <c r="H41">
+        <v>0.41390215304331202</v>
+      </c>
+      <c r="I41">
+        <f>C41/H41</f>
+        <v>1.7601164158504501</v>
+      </c>
       <c r="J41">
         <v>0.42204753589758282</v>
       </c>
@@ -3848,6 +3883,13 @@
       <c r="F42">
         <v>4</v>
       </c>
+      <c r="H42">
+        <v>0.39960367852914203</v>
+      </c>
+      <c r="I42">
+        <f>C42/H42</f>
+        <v>1.803747544235164</v>
+      </c>
       <c r="J42">
         <v>0.41367801018345729</v>
       </c>
@@ -3919,6 +3961,13 @@
       </c>
       <c r="F43">
         <v>4</v>
+      </c>
+      <c r="H43">
+        <v>0.385339922506513</v>
+      </c>
+      <c r="I43">
+        <f>C43/H43</f>
+        <v>1.8628120102246279</v>
       </c>
       <c r="J43">
         <v>0.38759687116937669</v>
